--- a/files/f22d7_gt.xlsx
+++ b/files/f22d7_gt.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="29100" windowHeight="13520" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -22,90 +29,233 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t xml:space="preserve">Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivelisse Peel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sigrid Grooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Majorie Flaherty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stevie Fisk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova Bolduc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naoma Moyer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eric Minter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dotty Dorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kandice Hussey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cleo Nixon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quarterly Total</t>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Total Expenses</t>
+  </si>
+  <si>
+    <t>Ivelisse Peel</t>
+  </si>
+  <si>
+    <t>Sigrid Grooms</t>
+  </si>
+  <si>
+    <t>Majorie Flaherty</t>
+  </si>
+  <si>
+    <t>Stevie Fisk</t>
+  </si>
+  <si>
+    <t>Nova Bolduc</t>
+  </si>
+  <si>
+    <t>Naoma Moyer</t>
+  </si>
+  <si>
+    <t>Eric Minter</t>
+  </si>
+  <si>
+    <t>Dotty Dorn</t>
+  </si>
+  <si>
+    <t>Kandice Hussey</t>
+  </si>
+  <si>
+    <t>Cleo Nixon</t>
+  </si>
+  <si>
+    <t>Quarterly Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,184 +274,850 @@
         <bgColor rgb="FF800080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+  <cellStyleXfs count="50">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Comma 2" xfId="20"/>
+  <cellStyles count="50">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Comma 2" xfId="49"/>
   </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF8000"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF8000"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -328,7 +1144,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -352,7 +1168,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -412,289 +1228,284 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
+    <col min="1" max="1" width="18.4375" customWidth="1"/>
+    <col min="6" max="6" width="18.0089285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customHeight="1" spans="1:6">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>696</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>420</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>722</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>428</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <f aca="false">SUM(B2:E2)</f>
+      <c r="F2" s="1">
+        <f t="shared" ref="F2:F11" si="0">SUM(B2:E2)</f>
         <v>2266</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>429</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>419</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>146</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>253</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <f aca="false">SUM(B3:E3)</f>
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
         <v>1247</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>563</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>325</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>197</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>229</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <f aca="false">SUM(B4:E4)</f>
+      <c r="F4">
+        <f t="shared" si="0"/>
         <v>1314</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>710</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>287</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>209</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>485</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <f aca="false">SUM(B5:E5)</f>
+      <c r="F5">
+        <f t="shared" si="0"/>
         <v>1691</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>767</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>283</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>624</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>149</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <f aca="false">SUM(B6:E6)</f>
+      <c r="F6">
+        <f t="shared" si="0"/>
         <v>1823</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>220</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>282</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>390</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>714</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <f aca="false">SUM(B7:E7)</f>
+      <c r="F7">
+        <f t="shared" si="0"/>
         <v>1606</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>231</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>735</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>416</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>378</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <f aca="false">SUM(B8:E8)</f>
+      <c r="F8">
+        <f t="shared" si="0"/>
         <v>1760</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>229</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>496</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>519</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>309</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <f aca="false">SUM(B9:E9)</f>
+      <c r="F9">
+        <f t="shared" si="0"/>
         <v>1553</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>752</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>773</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>483</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>220</v>
       </c>
-      <c r="F10" s="0" t="n">
-        <f aca="false">SUM(B10:E10)</f>
+      <c r="F10">
+        <f t="shared" si="0"/>
         <v>2228</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>255</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>567</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>237</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>692</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <f aca="false">SUM(B11:E11)</f>
+      <c r="F11">
+        <f t="shared" si="0"/>
         <v>1751</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <f aca="false">SUM(B2:B11)</f>
+      <c r="B12">
+        <f>SUM(B2:B11)</f>
         <v>4852</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <f aca="false">SUM(C2:C11)</f>
+      <c r="C12">
+        <f>SUM(C2:C11)</f>
         <v>4587</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <f aca="false">SUM(D2:D11)</f>
+      <c r="D12">
+        <f>SUM(D2:D11)</f>
         <v>3943</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <f aca="false">SUM(E2:E11)</f>
+      <c r="E12">
+        <f>SUM(E2:E11)</f>
         <v>3857</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>